--- a/regions/3/transporti da kavshirgabmuloba/transporti da dasawyobeba.xlsx
+++ b/regions/3/transporti da kavshirgabmuloba/transporti da dasawyobeba.xlsx
@@ -67,11 +67,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -584,22 +584,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="O4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="76.5703125" customWidth="1"/>
     <col min="2" max="11" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
         <v>14</v>
       </c>
@@ -619,7 +619,7 @@
       <c r="O1" s="35"/>
       <c r="P1" s="35"/>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -634,7 +634,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="11">
         <v>2006</v>
@@ -681,8 +681,14 @@
       <c r="P3" s="21">
         <v>2020</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.75">
+      <c r="Q3" s="21">
+        <v>2021</v>
+      </c>
+      <c r="R3" s="21">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>0</v>
       </c>
@@ -731,8 +737,14 @@
       <c r="P4" s="22">
         <v>29.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="15.75">
+      <c r="Q4" s="34">
+        <v>50</v>
+      </c>
+      <c r="R4" s="34">
+        <v>33.799999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>1</v>
       </c>
@@ -781,8 +793,14 @@
       <c r="P5" s="22">
         <v>22.9</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="15.75">
+      <c r="Q5" s="22">
+        <v>44.6</v>
+      </c>
+      <c r="R5" s="34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>8</v>
       </c>
@@ -831,8 +849,14 @@
       <c r="P6" s="22">
         <v>758</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="15.75">
+      <c r="Q6" s="22">
+        <v>912</v>
+      </c>
+      <c r="R6" s="22">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>9</v>
       </c>
@@ -881,8 +905,14 @@
       <c r="P7" s="22">
         <v>402</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" s="31" customFormat="1" ht="15.75">
+      <c r="Q7" s="22">
+        <v>442</v>
+      </c>
+      <c r="R7" s="22">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
         <v>15</v>
       </c>
@@ -931,8 +961,14 @@
       <c r="P8" s="22">
         <v>405.1</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="15.75">
+      <c r="Q8" s="22">
+        <v>477.5</v>
+      </c>
+      <c r="R8" s="22">
+        <v>773.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
         <v>2</v>
       </c>
@@ -981,8 +1017,14 @@
       <c r="P9" s="22">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="15.75">
+      <c r="Q9" s="22">
+        <v>31.1</v>
+      </c>
+      <c r="R9" s="22">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
         <v>3</v>
       </c>
@@ -1031,8 +1073,14 @@
       <c r="P10" s="34">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="15.75">
+      <c r="Q10" s="34">
+        <v>2.6</v>
+      </c>
+      <c r="R10" s="34">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
         <v>4</v>
       </c>
@@ -1081,8 +1129,14 @@
       <c r="P11" s="22">
         <v>14.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="15.75">
+      <c r="Q11" s="22">
+        <v>13.5</v>
+      </c>
+      <c r="R11" s="22">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
         <v>10</v>
       </c>
@@ -1131,8 +1185,14 @@
       <c r="P12" s="34">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" ht="15.75">
+      <c r="Q12" s="34">
+        <v>0</v>
+      </c>
+      <c r="R12" s="34">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
         <v>5</v>
       </c>
@@ -1181,8 +1241,14 @@
       <c r="P13" s="34">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" s="31" customFormat="1" ht="15.75">
+      <c r="Q13" s="34">
+        <v>36.5</v>
+      </c>
+      <c r="R13" s="34">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A14" s="27" t="s">
         <v>11</v>
       </c>
@@ -1231,8 +1297,14 @@
       <c r="P14" s="22">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="Q14" s="22">
+        <v>5.4</v>
+      </c>
+      <c r="R14" s="22">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A15" s="24"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -1246,89 +1318,89 @@
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
     </row>
-    <row r="16" spans="1:16" s="6" customFormat="1" ht="13.5">
+    <row r="16" spans="1:18" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="26"/>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="26"/>
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="2"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="4"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
       <c r="C27" s="5"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
     </row>
   </sheetData>

--- a/regions/3/transporti da kavshirgabmuloba/transporti da dasawyobeba.xlsx
+++ b/regions/3/transporti da kavshirgabmuloba/transporti da dasawyobeba.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61EA2C2-3EBD-4058-9FC6-B23614734AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="-75" windowWidth="19980" windowHeight="6765"/>
+    <workbookView xWindow="255" yWindow="2640" windowWidth="13110" windowHeight="9855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NACE 2" sheetId="1" r:id="rId1"/>
@@ -67,11 +68,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,12 +212,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -225,10 +223,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -237,10 +234,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -257,7 +251,7 @@
     <xf numFmtId="1" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -268,14 +262,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -373,6 +362,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -408,6 +414,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -583,825 +606,846 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="O4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="P4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" sqref="A1:P1"/>
+      <selection pane="bottomRight" activeCell="S4" sqref="S4:S14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="76.5703125" customWidth="1"/>
     <col min="2" max="11" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:19">
+      <c r="A1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="11">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="7"/>
+      <c r="B3" s="9">
         <v>2006</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="9">
         <v>2007</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="9">
         <v>2008</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="9">
         <v>2009</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="9">
         <v>2010</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="10">
         <v>2011</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="10">
         <v>2012</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="10">
         <v>2013</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="11">
         <v>2014</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="11">
         <v>2015</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3" s="10">
         <v>2016</v>
       </c>
-      <c r="M3" s="14">
+      <c r="M3" s="10">
         <v>2017</v>
       </c>
-      <c r="N3" s="14">
+      <c r="N3" s="10">
         <v>2018</v>
       </c>
-      <c r="O3" s="21">
+      <c r="O3" s="18">
         <v>2019</v>
       </c>
-      <c r="P3" s="21">
+      <c r="P3" s="18">
         <v>2020</v>
       </c>
-      <c r="Q3" s="21">
+      <c r="Q3" s="18">
         <v>2021</v>
       </c>
-      <c r="R3" s="21">
+      <c r="R3" s="18">
         <v>2022</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="S3" s="18">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15.75">
+      <c r="A4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="12">
         <v>0.72704000000000002</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="12">
         <v>0.46871000000000002</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="12">
         <v>0.38345000000000001</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="12">
         <v>0.30185000000000001</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="12">
         <v>0.57354000000000005</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="12">
         <v>0.45401000000000002</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="13">
         <v>1</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="14">
         <v>4.5999999999999996</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="15">
         <v>4.4939999999999998</v>
       </c>
-      <c r="K4" s="18">
+      <c r="K4" s="15">
         <v>4.3816000000000006</v>
       </c>
-      <c r="L4" s="19">
+      <c r="L4" s="16">
         <v>10.7</v>
       </c>
-      <c r="M4" s="15">
+      <c r="M4" s="12">
         <v>17.119869999999999</v>
       </c>
-      <c r="N4" s="15">
+      <c r="N4" s="12">
         <v>17.072590000000002</v>
       </c>
-      <c r="O4" s="22">
+      <c r="O4" s="19">
         <v>28.8</v>
       </c>
-      <c r="P4" s="22">
+      <c r="P4" s="19">
         <v>29.2</v>
       </c>
-      <c r="Q4" s="34">
+      <c r="Q4" s="26">
         <v>50</v>
       </c>
-      <c r="R4" s="34">
+      <c r="R4" s="26">
         <v>33.799999999999997</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="S4" s="26">
+        <v>66.400000000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15.75">
+      <c r="A5" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="12">
         <v>0.72704000000000002</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="12">
         <v>0.46871000000000002</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="12">
         <v>0.38345000000000001</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="12">
         <v>0.30185000000000001</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="12">
         <v>0.57354000000000005</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="12">
         <v>0.45401000000000002</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="13">
         <v>1</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="13">
         <v>3.1</v>
       </c>
-      <c r="J5" s="19">
+      <c r="J5" s="16">
         <v>4.5</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K5" s="16">
         <v>3.9</v>
       </c>
-      <c r="L5" s="19">
+      <c r="L5" s="16">
         <v>9.8000000000000007</v>
       </c>
-      <c r="M5" s="15">
+      <c r="M5" s="12">
         <v>16.437750000000001</v>
       </c>
-      <c r="N5" s="15">
+      <c r="N5" s="12">
         <v>17.670829999999999</v>
       </c>
-      <c r="O5" s="22">
+      <c r="O5" s="19">
         <v>27.8</v>
       </c>
-      <c r="P5" s="22">
+      <c r="P5" s="19">
         <v>22.9</v>
       </c>
-      <c r="Q5" s="22">
+      <c r="Q5" s="19">
         <v>44.6</v>
       </c>
-      <c r="R5" s="34">
+      <c r="R5" s="26">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="S5" s="26">
+        <v>60.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15.75">
+      <c r="A6" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="17">
         <v>141.25</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="17">
         <v>109.71715</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="17">
         <v>291.33334000000002</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="17">
         <v>89.5</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="17">
         <v>99.333340000000007</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="17">
         <v>91.107960000000006</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="14">
         <v>109</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="14">
         <v>198</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="16">
         <v>389</v>
       </c>
-      <c r="K6" s="19">
+      <c r="K6" s="16">
         <v>306</v>
       </c>
-      <c r="L6" s="19">
+      <c r="L6" s="16">
         <v>391</v>
       </c>
-      <c r="M6" s="20">
+      <c r="M6" s="17">
         <v>620.43296999999995</v>
       </c>
-      <c r="N6" s="20">
+      <c r="N6" s="17">
         <v>655.12656000000004</v>
       </c>
-      <c r="O6" s="22">
+      <c r="O6" s="19">
         <v>761</v>
       </c>
-      <c r="P6" s="22">
+      <c r="P6" s="19">
         <v>758</v>
       </c>
-      <c r="Q6" s="22">
+      <c r="Q6" s="19">
         <v>912</v>
       </c>
-      <c r="R6" s="22">
+      <c r="R6" s="19">
         <v>1061</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+      <c r="S6" s="19">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15.75">
+      <c r="A7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="17">
         <v>118</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="17">
         <v>86.252520000000004</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="17">
         <v>149</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="17">
         <v>65</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="17">
         <v>78</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="17">
         <v>82.451830000000001</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="14">
         <v>102</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="14">
         <v>193</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="16">
         <v>348</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K7" s="16">
         <v>198</v>
       </c>
-      <c r="L7" s="19">
+      <c r="L7" s="16">
         <v>210</v>
       </c>
-      <c r="M7" s="20">
+      <c r="M7" s="17">
         <v>457.28205000000003</v>
       </c>
-      <c r="N7" s="20">
+      <c r="N7" s="17">
         <v>513.41111000000001</v>
       </c>
-      <c r="O7" s="22">
+      <c r="O7" s="19">
         <v>635</v>
       </c>
-      <c r="P7" s="22">
+      <c r="P7" s="19">
         <v>402</v>
       </c>
-      <c r="Q7" s="22">
+      <c r="Q7" s="19">
         <v>442</v>
       </c>
-      <c r="R7" s="22">
+      <c r="R7" s="19">
         <v>450</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
+      <c r="S7" s="19">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15.75">
+      <c r="A8" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="12">
         <v>83.713453000000001</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="12">
         <v>118.147233</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="12">
         <v>57.295673999999998</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="12">
         <v>77.641024999999999</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="12">
         <v>119.105769</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="12">
         <v>129.83775600000001</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="14">
         <v>157.80000000000001</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="14">
         <v>183.7</v>
       </c>
-      <c r="J8" s="28">
+      <c r="J8" s="15">
         <v>244.3</v>
       </c>
-      <c r="K8" s="28">
+      <c r="K8" s="15">
         <v>366.4</v>
       </c>
-      <c r="L8" s="29">
+      <c r="L8" s="16">
         <v>458.4</v>
       </c>
-      <c r="M8" s="15">
+      <c r="M8" s="12">
         <v>464.916448</v>
       </c>
-      <c r="N8" s="15">
+      <c r="N8" s="12">
         <v>276.49222500000002</v>
       </c>
-      <c r="O8" s="30">
+      <c r="O8" s="19">
         <v>298.2</v>
       </c>
-      <c r="P8" s="22">
+      <c r="P8" s="19">
         <v>405.1</v>
       </c>
-      <c r="Q8" s="22">
+      <c r="Q8" s="19">
         <v>477.5</v>
       </c>
-      <c r="R8" s="22">
+      <c r="R8" s="19">
         <v>773.2</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
+      <c r="S8" s="19">
+        <v>984.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15.75">
+      <c r="A9" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="12">
         <v>0.41576000000000002</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="12">
         <v>0.20799999999999999</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="12">
         <v>0.12953999999999999</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="12">
         <v>0.12304</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="12">
         <v>0.33739000000000002</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="12">
         <v>0.16336999999999999</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="14">
         <v>0.5</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="14">
         <v>0.8</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J9" s="15">
         <v>2.6983999999999999</v>
       </c>
-      <c r="K9" s="18">
+      <c r="K9" s="15">
         <v>1.8308</v>
       </c>
-      <c r="L9" s="19">
+      <c r="L9" s="16">
         <v>3.9</v>
       </c>
-      <c r="M9" s="15">
+      <c r="M9" s="12">
         <v>6.7221500000000001</v>
       </c>
-      <c r="N9" s="15">
+      <c r="N9" s="12">
         <v>10.09094</v>
       </c>
-      <c r="O9" s="22">
+      <c r="O9" s="19">
         <v>15.6</v>
       </c>
-      <c r="P9" s="22">
+      <c r="P9" s="19">
         <v>8.6999999999999993</v>
       </c>
-      <c r="Q9" s="22">
+      <c r="Q9" s="19">
         <v>31.1</v>
       </c>
-      <c r="R9" s="22">
+      <c r="R9" s="19">
         <v>16.600000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
+      <c r="S9" s="19">
+        <v>39.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75">
+      <c r="A10" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="12">
         <v>0.14685999999999999</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="12">
         <v>0.15125</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="12">
         <v>0.10246</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="12">
         <v>6.0560000000000003E-2</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="12">
         <v>0.11149000000000001</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="12">
         <v>0.12845999999999999</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="14">
         <v>0.2</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="14">
         <v>0.4</v>
       </c>
-      <c r="J10" s="18">
+      <c r="J10" s="15">
         <v>1.0186999999999999</v>
       </c>
-      <c r="K10" s="18">
+      <c r="K10" s="15">
         <v>0.86860000000000004</v>
       </c>
-      <c r="L10" s="19">
+      <c r="L10" s="16">
         <v>1.2</v>
       </c>
-      <c r="M10" s="15">
+      <c r="M10" s="12">
         <v>2.5511599999999999</v>
       </c>
-      <c r="N10" s="15">
+      <c r="N10" s="12">
         <v>1.7034400000000001</v>
       </c>
-      <c r="O10" s="22">
+      <c r="O10" s="19">
         <v>2.5</v>
       </c>
-      <c r="P10" s="34">
+      <c r="P10" s="26">
         <v>2</v>
       </c>
-      <c r="Q10" s="34">
+      <c r="Q10" s="26">
         <v>2.6</v>
       </c>
-      <c r="R10" s="34">
+      <c r="R10" s="26">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
+      <c r="S10" s="26">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15.75">
+      <c r="A11" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="12">
         <v>0.31130999999999998</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="12">
         <v>0.26074000000000003</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="12">
         <v>0.25392999999999999</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="12">
         <v>0.17882000000000001</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="12">
         <v>0.23616000000000001</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="12">
         <v>0.29064000000000001</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="14">
         <v>0.5</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="14">
         <v>2.2999999999999998</v>
       </c>
-      <c r="J11" s="18">
+      <c r="J11" s="15">
         <v>1.7955999999999999</v>
       </c>
-      <c r="K11" s="18">
+      <c r="K11" s="15">
         <v>2.0348000000000002</v>
       </c>
-      <c r="L11" s="18">
+      <c r="L11" s="15">
         <v>5.9</v>
       </c>
-      <c r="M11" s="15">
+      <c r="M11" s="12">
         <v>9.7156400000000005</v>
       </c>
-      <c r="N11" s="15">
+      <c r="N11" s="12">
         <v>7.5799200000000004</v>
       </c>
-      <c r="O11" s="22">
+      <c r="O11" s="19">
         <v>12.3</v>
       </c>
-      <c r="P11" s="22">
+      <c r="P11" s="19">
         <v>14.2</v>
       </c>
-      <c r="Q11" s="22">
+      <c r="Q11" s="19">
         <v>13.5</v>
       </c>
-      <c r="R11" s="22">
+      <c r="R11" s="19">
         <v>18.399999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="23" t="s">
+      <c r="S11" s="19">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15.75">
+      <c r="A12" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="12">
         <v>0.26634000000000002</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="12">
         <v>0</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="12">
         <v>7.4539999999999995E-2</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="12">
         <v>1.0279999999999999E-2</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="12">
         <v>0</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="12">
         <v>8.7899999999999992E-3</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="14">
         <v>0.2</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12" s="13">
         <v>0</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="15">
         <v>0.98420000000000007</v>
       </c>
-      <c r="K12" s="18">
+      <c r="K12" s="15">
         <v>3.5799999999999998E-2</v>
       </c>
-      <c r="L12" s="19">
+      <c r="L12" s="16">
         <v>0.2</v>
       </c>
-      <c r="M12" s="15">
+      <c r="M12" s="12">
         <v>7.6099999999999996E-3</v>
       </c>
-      <c r="N12" s="15">
+      <c r="N12" s="12">
         <v>20.2986</v>
       </c>
-      <c r="O12" s="22">
+      <c r="O12" s="19">
         <v>0.1</v>
       </c>
-      <c r="P12" s="34">
+      <c r="P12" s="26">
         <v>0</v>
       </c>
-      <c r="Q12" s="34">
+      <c r="Q12" s="26">
         <v>0</v>
       </c>
-      <c r="R12" s="34">
+      <c r="R12" s="26">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
+      <c r="S12" s="26">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15.75">
+      <c r="A13" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="12">
         <v>0.20344000000000001</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="12">
         <v>0.24404999999999999</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="12">
         <v>0.12114</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="12">
         <v>0.33450999999999997</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="12">
         <v>0.14718999999999999</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="14">
         <v>0.5</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="14">
         <v>2.4</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13" s="13">
         <v>2.6601999999999997</v>
       </c>
-      <c r="K13" s="16">
+      <c r="K13" s="13">
         <v>2.2561</v>
       </c>
-      <c r="L13" s="17">
+      <c r="L13" s="14">
         <v>4.4000000000000004</v>
       </c>
-      <c r="M13" s="15">
+      <c r="M13" s="12">
         <v>6.6484899999999998</v>
       </c>
-      <c r="N13" s="15">
+      <c r="N13" s="12">
         <v>12.50451</v>
       </c>
-      <c r="O13" s="22">
+      <c r="O13" s="19">
         <v>16.600000000000001</v>
       </c>
-      <c r="P13" s="34">
+      <c r="P13" s="26">
         <v>15</v>
       </c>
-      <c r="Q13" s="34">
+      <c r="Q13" s="26">
         <v>36.5</v>
       </c>
-      <c r="R13" s="34">
+      <c r="R13" s="26">
         <v>16.399999999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="27" t="s">
+      <c r="S13" s="26">
+        <v>45.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="15.75">
+      <c r="A14" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="12">
         <v>0</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="12">
         <v>0.11713</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="12">
         <v>0</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="12">
         <v>0</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="12">
         <v>0</v>
       </c>
-      <c r="H14" s="17" t="s">
+      <c r="H14" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="14">
         <v>1.5</v>
       </c>
-      <c r="J14" s="16" t="s">
+      <c r="J14" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="K14" s="28">
+      <c r="K14" s="15">
         <v>0.5161</v>
       </c>
-      <c r="L14" s="28">
+      <c r="L14" s="15">
         <v>1</v>
       </c>
-      <c r="M14" s="15">
+      <c r="M14" s="12">
         <v>0.68211999999999995</v>
       </c>
-      <c r="N14" s="15">
+      <c r="N14" s="12">
         <v>2.52176</v>
       </c>
-      <c r="O14" s="33">
+      <c r="O14" s="26">
         <v>1</v>
       </c>
-      <c r="P14" s="22">
+      <c r="P14" s="19">
         <v>6.3</v>
       </c>
-      <c r="Q14" s="22">
+      <c r="Q14" s="19">
         <v>5.4</v>
       </c>
-      <c r="R14" s="22">
+      <c r="R14" s="19">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-    </row>
-    <row r="16" spans="1:18" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="S14" s="19">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="15.75">
+      <c r="A15" s="21"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+    </row>
+    <row r="16" spans="1:19" s="5" customFormat="1" ht="13.5">
+      <c r="A16" s="22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+    <row r="17" spans="1:5">
+      <c r="A17" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="23"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="23"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
+    <row r="21" spans="1:5">
+      <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
-      <c r="C22" s="2"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="B22" s="2"/>
+      <c r="C22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
-      <c r="C23" s="3"/>
+    <row r="23" spans="1:5">
+      <c r="B23" s="1"/>
+      <c r="C23" s="2"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="3"/>
-      <c r="C24" s="2"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
+      <c r="B24" s="2"/>
+      <c r="C24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5">
       <c r="B26" s="1"/>
-      <c r="C26" s="4"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="4"/>
-      <c r="E29" s="4"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="4"/>
-      <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="4"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="4"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="4"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="4"/>
+      <c r="C26" s="3"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="B27" s="3"/>
+      <c r="C27" s="4"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="B28" s="3"/>
+      <c r="C28" s="4"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="B29" s="3"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="B30" s="3"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
